--- a/biology/Zoologie/Hareng_de_l'Atlantique/Hareng_de_l'Atlantique.xlsx
+++ b/biology/Zoologie/Hareng_de_l'Atlantique/Hareng_de_l'Atlantique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hareng_de_l%27Atlantique</t>
+          <t>Hareng_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clupea harengus
 Le hareng, aussi appelé au Canada « sardine canadienne », et plus exactement, le hareng atlantique (Clupea harengus), est une espèce de poissons appartenant à la famille des Clupeidae. Il se déplace en grands bancs dans les eaux froides, à la fois fortement salées et oxygénées.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hareng_de_l%27Atlantique</t>
+          <t>Hareng_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au IIIe siècle est attesté le bas latin aringus. Le germanique hâring est à l'origine du mot français hareng comme de l'allemand Hering. La raison en est probablement que les principaux bancs de la mer du Nord sont déjà pêchés et les harengs traités par des locuteurs germaniques. Le commerce du hareng séché ou hareng saur en caque [1] ou en maise a pris une extension considérable au XIIIe siècle. La maise, ou moise, est un tonneau de 1 000 harengs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au IIIe siècle est attesté le bas latin aringus. Le germanique hâring est à l'origine du mot français hareng comme de l'allemand Hering. La raison en est probablement que les principaux bancs de la mer du Nord sont déjà pêchés et les harengs traités par des locuteurs germaniques. Le commerce du hareng séché ou hareng saur en caque  ou en maise a pris une extension considérable au XIIIe siècle. La maise, ou moise, est un tonneau de 1 000 harengs.
 Mais il constitue dans les contrées rhénanes, du Hunsrück aux Vosges, du Taunus à la Forêt-Noire, une des premières nourritures connues, ne serait-ce que par l'ancienneté du nom alors que ce produit d'exportation antique est au terme d'une longue et lente remontée du fleuve et de ses affluents[pas clair].
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hareng_de_l%27Atlantique</t>
+          <t>Hareng_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Gastronomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hareng frais
 Hareng fumé
@@ -559,7 +575,7 @@
 Hollandse nieuwe ou « Maatje »
 Rollmops
 Surströmming
-Arënkha : perles de hareng fumé[2].</t>
+Arënkha : perles de hareng fumé.</t>
         </is>
       </c>
     </row>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hareng_de_l%27Atlantique</t>
+          <t>Hareng_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Clupea harengus harengus Linnaeus, 1758 - hareng de l'Atlantique, sardine canadienne, alose d'été
 Clupea harengus membras Linnaeus, 1761
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hareng_de_l%27Atlantique</t>
+          <t>Hareng_de_l'Atlantique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Toponymes dérivés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Haringzelle, hameau de la seigneurie d'Audresselles, aujourd'hui emplacement de batteries allemandes, dans la commune d'Audinghen (France).</t>
         </is>
